--- a/SampleApp/模版/Sample02_1.xlsx
+++ b/SampleApp/模版/Sample02_1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42344E94-6B91-4354-BEC4-764B811DD1B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="4290" yWindow="4980" windowWidth="28455" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,14 +27,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预算部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算部门负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部门负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,26 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>互动娱乐事业部-公共棋牌业务部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>互动娱乐事业部-系统运维部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审计部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>娃娃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,19 +51,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>亮亮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>静静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业1部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业2部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业3部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业4部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业5部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业6部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,14 +128,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -176,13 +173,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,12 +278,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -217,6 +291,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -380,6 +481,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -415,6 +533,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -590,103 +725,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="27.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="8" t="s">
+      <c r="E13" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>5</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>6</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>15</v>
+      <c r="E15" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:E3"/>
+  <mergeCells count="17">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -695,7 +952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -709,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SampleApp/模版/Sample02_1.xlsx
+++ b/SampleApp/模版/Sample02_1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42344E94-6B91-4354-BEC4-764B811DD1B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4980" windowWidth="28455" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4980" windowWidth="28455" windowHeight="16020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,13 +87,25 @@
   </si>
   <si>
     <t>事业6部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业1部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业2部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,32 +304,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,23 +495,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -533,23 +530,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -725,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -746,10 +726,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
@@ -761,11 +741,11 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -776,11 +756,11 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
@@ -789,10 +769,10 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -801,35 +781,35 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
@@ -841,11 +821,11 @@
       <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -856,11 +836,11 @@
       <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
@@ -869,10 +849,10 @@
       <c r="A12" s="9">
         <v>3</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="9" t="s">
         <v>5</v>
       </c>
@@ -884,10 +864,10 @@
       <c r="A13" s="9">
         <v>4</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="9" t="s">
         <v>13</v>
       </c>
@@ -899,10 +879,10 @@
       <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
@@ -914,10 +894,10 @@
       <c r="A15" s="9">
         <v>6</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
@@ -927,6 +907,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -936,14 +923,7 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -952,13 +932,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="19">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="19">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -966,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
